--- a/TestResults/GeoOrgStdPut.xlsx
+++ b/TestResults/GeoOrgStdPut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -64,8 +64,8 @@
 	},
 	"geoplOrgStd":
 	{
-		"orgStdCd":"TestOrg",
-		"orgStdNm":"Test organisation"
+		"organizationStandardCode":"TestOrg",
+		"organizationStandardName":"Test organisation"
 	}
 }</t>
   </si>
@@ -94,16 +94,19 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
+		"transactionId":"8a2bd948-3931-492e-88f2-3cb6cc34527b",
+		"timeStamp":"2020-06-18 18:04:47",
+		"statusCode":"200",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"GEOPLORGSTD Details successfully updated with OrgStdCd :TestOrg",
+			"internalMessage":"GeopoliticalOrganizationStandard Details successfully updated with organizationStandardCode :TestOrg",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"orgStdCd":"TestOrg"
+		"organizationStandardCode":"TestOrg"
 	}
 }</t>
   </si>
@@ -112,6 +115,804 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Verify the JMS-Passed queue after the Geo Org Std PUT request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_orgStdCd: TestOrg
+DB_orgStdCd: TestOrg
+Response_orgStdNm: Test organisation
+DB_orgStdNm: Test organisation
+</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Validate that the Geopolitical Org Std service is not getting updated when the Org Std Code is empty in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"",
+		"organizationStandardName":"Test9"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_GeoOrgStdCode: 
+Input_GeoOrgStdName: Test9
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"869e9391-e090-4de1-aa66-c233d3bf6b92",
+		"timeStamp":"2020-06-18 18:05:01",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"organizationStandardCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the Geopolitical ORG STD service is successfully updated when empty value is passed for orgStdNm attribute in JSON Request.</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"TestOrg",
+		"organizationStandardName":""
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_GeoOrgStdCode: TestOrg
+Input_GeoOrgStdName: 
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_GeoOrgStdCode: TestOrg
+DB_GeoOrgStdName: 
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"38590500-cbe4-4602-a7b9-c59988733367",
+		"timeStamp":"2020-06-18 18:05:02",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"GeopoliticalOrganizationStandard Details successfully updated with organizationStandardCode :TestOrg",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"organizationStandardCode":"TestOrg"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"ANSI112309",
+		"organizationStandardName":"American National Standards Institute"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_GeoOrgStdCode: ANSI112309
+Input_GeoOrgStdName: American National Standards Institute
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"020993b7-35e5-4612-9e09-ca8482fb6352",
+		"timeStamp":"2020-06-18 18:05:05",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"meta",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the orgStdCd attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardName":"American National Standards Institute"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_GeoOrgStdCode: ANSI13894
+Input_GeoOrgStdName: American National Standards Institute
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"89f5d129-e24f-4be4-83df-17d01ca765ae",
+		"timeStamp":"2020-06-18 18:05:06",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"organizationStandardCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the Geopolitical ORG STD service is successfully updated when orgStdNm attribute is not provided in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"TestOrg"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"b7125a0e-1c2d-49d3-becc-8dfdb0c1c520",
+		"timeStamp":"2020-06-18 18:05:08",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"GeopoliticalOrganizationStandard Details successfully updated with organizationStandardCode :TestOrg",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"organizationStandardCode":"TestOrg"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":null
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"ANSI1127",
+		"organizationStandardName":"American National Standards Institute"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: null
+Input_GeoOrgStdCode: ANSI1127
+Input_GeoOrgStdName: American National Standards Institute
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"e2940bd5-8ba6-4d72-a08b-f8c84202c1b4",
+		"timeStamp":"2020-06-18 18:05:10",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the orgStdCd is more than 10 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"ANSI1ANSI1ANSI1ANSI197888888888",
+		"organizationStandardName":"American National Standards Institute"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_GeoOrgStdCode: ANSI1ANSI1ANSI1ANSI197888888888
+Input_GeoOrgStdName: American National Standards Institute
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"14920a46-5447-44fc-b0cd-e4ed8ae9b23d",
+		"timeStamp":"2020-06-18 18:05:11",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"organizationStandardCode",
+			"message":" cannot be greater than 10 characters!"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the orgStdNm is ore than 65 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"ANSI1gg",
+		"organizationStandardName":"American National Standards Institute (Primary) American National Standards Institute (Primary) American National Standards Institute (Primary)"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_GeoOrgStdCode: ANSI1gg
+Input_GeoOrgStdName: American National Standards Institute (Primary) American National Standards Institute (Primary) American National Standards Institute (Primary)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"9ea334b6-eea6-4350-97a7-d4cc8ddd38d5",
+		"timeStamp":"2020-06-18 18:05:13",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"organizationStandardName",
+			"message":" cannot be greater than 65 characters!"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"123456789012345678901234567890123456789012345676"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"ISO4gd",
+		"organizationStandardName":"American National Standards Institute"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 123456789012345678901234567890123456789012345676
+Input_GeoOrgStdCode: ISO4gd
+Input_GeoOrgStdName: American National Standards Institute
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"ca44fa47-292a-41ca-8eb9-a1ab56f653c1",
+		"timeStamp":"2020-06-18 18:05:14",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" cannot be greater than 25 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"ANSI2",
+		"organizationStandardName":"American National Standards Institute"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_GeoOrgStdCode: ANSI2
+Input_GeoOrgStdName: American National Standards Institute
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"4344f341-397b-44de-be2e-024802b31e53",
+		"timeStamp":"2020-06-18 18:05:15",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the PUT method for URL /v1/geopoliticalOrganizationSt"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is displayed when the orgStdCd provided in JSON is not exist in DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"TEA78",
+		"organizationStandardName":"HH72"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_GeoOrgStdCode: TEA78
+Input_GeoOrgStdName: HH72
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"f7a5fbf9-746d-4326-9206-80ee6a2898a9",
+		"timeStamp":"2020-06-18 18:05:17",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Resource Not Found",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Record not found"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is displayed when special characters are provided for orgStdCd in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"@#$#@$$",
+		"organizationStandardName":"American National Staute"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_GeoOrgStdCode: @#$#@$$
+Input_GeoOrgStdName: American National Staute
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"a3f78a39-c1fd-4912-ae62-fd64913c6862",
+		"timeStamp":"2020-06-18 18:05:18",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Resource Not Found",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Record not found"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when if any comma/bracket is missing in request then we will get the JSON parse error: Unexpected character in response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"geoplOrgStd":
+	{
+		"organizationStandardCode":"TestOrg""organizationStandardName":"Test organisation"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_GeoOrgStdCode: TestOrg
+Input_GeoOrgStdName: Test organisation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"27111de9-650a-4e93-a9c5-1b47f926b241",
+		"timeStamp":"2020-06-18 18:05:20",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"JSON parse error: Unexpected character ('\"' (code 34)): was expecting comma to separate Object entries"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when we use POST url but selecting GET method</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"b20d29d2-98b9-4f0e-a098-1aa9b7067797",
+		"timeStamp":"2020-06-18 18:05:21",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'GET' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-06-18T18:05:22.931+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
   </si>
 </sst>
 </file>
@@ -119,7 +920,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="189">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -132,6 +933,886 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -255,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -291,6 +1972,534 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -305,17 +2514,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -389,6 +2598,582 @@
       </c>
       <c r="L2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>21</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>21</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>21</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>21</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>21</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>21</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>21</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>21</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>21</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>101</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>21</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>106</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>21</v>
+      </c>
+      <c r="L18"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestResults/GeoOrgStdPut.xlsx
+++ b/TestResults/GeoOrgStdPut.xlsx
@@ -94,8 +94,8 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
-		"transactionId":"8a2bd948-3931-492e-88f2-3cb6cc34527b",
-		"timeStamp":"2020-06-18 18:04:47",
+		"transactionId":"ae85602b-42a0-43d0-a635-afa9db532fdf",
+		"timeStamp":"2020-07-16 09:36:54",
 		"statusCode":"200",
 		"message":
 		{
@@ -173,8 +173,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"869e9391-e090-4de1-aa66-c233d3bf6b92",
-		"timeStamp":"2020-06-18 18:05:01",
+		"transactionId":"99d0483a-e7f4-4a24-acfc-1d35cdbf4f06",
+		"timeStamp":"2020-07-16 09:38:57",
 		"statusCode":"400",
 		"message":
 		{
@@ -237,8 +237,8 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
-		"transactionId":"38590500-cbe4-4602-a7b9-c59988733367",
-		"timeStamp":"2020-06-18 18:05:02",
+		"transactionId":"102ab77c-5b32-4941-971e-ed1e6823418d",
+		"timeStamp":"2020-07-16 09:38:58",
 		"statusCode":"200",
 		"message":
 		{
@@ -281,8 +281,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"020993b7-35e5-4612-9e09-ca8482fb6352",
-		"timeStamp":"2020-06-18 18:05:05",
+		"transactionId":"a8841802-6892-43d0-8ca6-8d138d0af6ed",
+		"timeStamp":"2020-07-16 09:39:01",
 		"statusCode":"400",
 		"message":
 		{
@@ -334,8 +334,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"89f5d129-e24f-4be4-83df-17d01ca765ae",
-		"timeStamp":"2020-06-18 18:05:06",
+		"transactionId":"31ae0afc-c930-4793-8cf7-7a2fb041ad50",
+		"timeStamp":"2020-07-16 09:39:02",
 		"statusCode":"400",
 		"message":
 		{
@@ -382,8 +382,8 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
-		"transactionId":"b7125a0e-1c2d-49d3-becc-8dfdb0c1c520",
-		"timeStamp":"2020-06-18 18:05:08",
+		"transactionId":"4730e03c-e9ed-49f7-a7a2-2c06d20a4584",
+		"timeStamp":"2020-07-16 09:39:04",
 		"statusCode":"200",
 		"message":
 		{
@@ -430,8 +430,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"e2940bd5-8ba6-4d72-a08b-f8c84202c1b4",
-		"timeStamp":"2020-06-18 18:05:10",
+		"transactionId":"ceee9f8b-343f-48a2-850a-373577bcc3d5",
+		"timeStamp":"2020-07-16 09:39:06",
 		"statusCode":"400",
 		"message":
 		{
@@ -484,8 +484,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"14920a46-5447-44fc-b0cd-e4ed8ae9b23d",
-		"timeStamp":"2020-06-18 18:05:11",
+		"transactionId":"1dd40ed9-6219-4fc2-bcb6-98a0b7a153f9",
+		"timeStamp":"2020-07-16 09:39:08",
 		"statusCode":"400",
 		"message":
 		{
@@ -538,8 +538,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"9ea334b6-eea6-4350-97a7-d4cc8ddd38d5",
-		"timeStamp":"2020-06-18 18:05:13",
+		"transactionId":"9c7f612b-a020-40ff-9971-8a4bc4844bb1",
+		"timeStamp":"2020-07-16 09:39:09",
 		"statusCode":"400",
 		"message":
 		{
@@ -592,8 +592,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"ca44fa47-292a-41ca-8eb9-a1ab56f653c1",
-		"timeStamp":"2020-06-18 18:05:14",
+		"transactionId":"3817887b-98dc-4d9a-a73b-813b166b8cf0",
+		"timeStamp":"2020-07-16 09:39:10",
 		"statusCode":"400",
 		"message":
 		{
@@ -652,8 +652,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"4344f341-397b-44de-be2e-024802b31e53",
-		"timeStamp":"2020-06-18 18:05:15",
+		"transactionId":"de334bfd-a104-42b2-8cee-e22f052ac033",
+		"timeStamp":"2020-07-16 09:39:11",
 		"statusCode":"404",
 		"message":
 		{
@@ -706,8 +706,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"f7a5fbf9-746d-4326-9206-80ee6a2898a9",
-		"timeStamp":"2020-06-18 18:05:17",
+		"transactionId":"0e2db85d-5234-4bed-a860-91589bb6009a",
+		"timeStamp":"2020-07-16 09:39:13",
 		"statusCode":"404",
 		"message":
 		{
@@ -760,8 +760,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"a3f78a39-c1fd-4912-ae62-fd64913c6862",
-		"timeStamp":"2020-06-18 18:05:18",
+		"transactionId":"3512f745-afe3-4f18-b085-249f7164fb9d",
+		"timeStamp":"2020-07-16 09:39:14",
 		"statusCode":"404",
 		"message":
 		{
@@ -813,8 +813,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"27111de9-650a-4e93-a9c5-1b47f926b241",
-		"timeStamp":"2020-06-18 18:05:20",
+		"transactionId":"fc9d1939-027d-483b-aa79-db543b277ce3",
+		"timeStamp":"2020-07-16 09:39:16",
 		"statusCode":"400",
 		"message":
 		{
@@ -853,8 +853,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"b20d29d2-98b9-4f0e-a098-1aa9b7067797",
-		"timeStamp":"2020-06-18 18:05:21",
+		"transactionId":"c02dfeb8-288e-4a7f-b4e8-76282adb73d1",
+		"timeStamp":"2020-07-16 09:39:17",
 		"statusCode":"405",
 		"message":
 		{
@@ -893,7 +893,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"timeStamp":"2020-06-18T18:05:22.931+0000",
+		"transactionId":"e8395a81-8de3-4c7a-a9f6-36b32588fca0",
+		"timeStamp":"2020-07-16T09:39:18.522+0000",
 		"statusCode":"401",
 		"message":
 		{
